--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Staff ID</t>
   </si>
@@ -31,22 +31,88 @@
     <t xml:space="preserve">Image URL</t>
   </si>
   <si>
-    <t xml:space="preserve">no name1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userNotExist.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no name2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no name3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no name4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no name5</t>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z1</t>
   </si>
 </sst>
 </file>
@@ -159,18 +225,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -191,7 +257,7 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -202,7 +268,7 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -213,8 +279,8 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,10 +288,10 @@
         <v>12656</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,10 +299,187 @@
         <v>12657</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>12658</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>12659</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>12660</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>12661</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>12662</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>12663</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12664</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12665</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>12666</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>12667</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>12668</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>12669</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>12670</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>12671</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>12672</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>12673</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>12674</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>12675</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>12676</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>12677</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>12678</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="6">
   <si>
     <t xml:space="preserve">Staff ID</t>
   </si>
@@ -31,88 +31,13 @@
     <t xml:space="preserve">Image URL</t>
   </si>
   <si>
-    <t xml:space="preserve">a1</t>
+    <t xml:space="preserve">Kobe Bryant KK KK</t>
   </si>
   <si>
     <t xml:space="preserve">OT</t>
   </si>
   <si>
-    <t xml:space="preserve">b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z1</t>
   </si>
 </sst>
 </file>
@@ -228,15 +153,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,7 +191,7 @@
         <v>12654</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>4</v>
@@ -277,10 +202,10 @@
         <v>12655</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,10 +213,10 @@
         <v>12656</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,10 +224,10 @@
         <v>12657</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,7 +235,7 @@
         <v>12658</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,7 +243,7 @@
         <v>12659</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +251,7 @@
         <v>12660</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,7 +259,7 @@
         <v>12661</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,7 +267,7 @@
         <v>12662</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +275,7 @@
         <v>12663</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +283,7 @@
         <v>12664</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +291,7 @@
         <v>12665</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,7 +299,7 @@
         <v>12666</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>4</v>
@@ -385,7 +310,7 @@
         <v>12667</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,7 +318,7 @@
         <v>12668</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +326,7 @@
         <v>12669</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,7 +334,7 @@
         <v>12670</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,7 +342,7 @@
         <v>12671</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +350,7 @@
         <v>12672</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +358,7 @@
         <v>12673</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,7 +366,7 @@
         <v>12674</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +374,7 @@
         <v>12675</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +382,7 @@
         <v>12676</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,10 +390,10 @@
         <v>12677</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,10 +401,10 @@
         <v>12678</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
